--- a/src/main/resources/properties/testData.xlsx
+++ b/src/main/resources/properties/testData.xlsx
@@ -2473,37 +2473,37 @@
     <t>postSearch2AdultsOnly</t>
   </si>
   <si>
-    <t>{"type":"hotel","query":"paris\/08-07-2019\/13-07-2019\/2_adult\/2_adult","queryParameters":"sortBy=distanceScore&amp;isGeo=1&amp;hId=&amp;types=","queryParametersObj":{"sortBy":"distanceScore","isGeo":1,"hId":"","types":[]},"isCountry":false}</t>
-  </si>
-  <si>
     <t>postSearch1AdultOnly</t>
   </si>
   <si>
-    <t>{"type":"hotel","query":"paris\/08-07-2019\/13-07-2019\/1_adult\/1_adult","queryParameters":"sortBy=distanceScore&amp;isGeo=1&amp;hId=&amp;types=","queryParametersObj":{"sortBy":"distanceScore","isGeo":1,"hId":"","types":[]},"isCountry":false}</t>
-  </si>
-  <si>
     <t>postSearch1ChildOnly</t>
   </si>
   <si>
-    <t>{"type":"hotel","query":"paris\/08-07-2019\/13-07-2019\/0_adult,1_child,1_age","queryParameters":"sortBy=distanceScore&amp;isGeo=1&amp;hId=&amp;types=","queryParametersObj":{"sortBy":"distanceScore","isGeo":1,"hId":"","types":[]},"isCountry":false}</t>
-  </si>
-  <si>
     <t>postSearchWithoutPerson</t>
   </si>
   <si>
-    <t>{"type":"hotel","query":"paris\/08-07-2019\/13-07-2019\/0_adult","queryParameters":"sortBy=distanceScore&amp;isGeo=1&amp;hId=&amp;types=","queryParametersObj":{"sortBy":"distanceScore","isGeo":1,"hId":"","types":[]},"isCountry":false}</t>
-  </si>
-  <si>
     <t>postSearchPastDates</t>
   </si>
   <si>
-    <t>{"type":"hotel","query":"paris\/08-07-2019\/13-07-2019\/2_adult,1_child,3_age\/2_adult","queryParameters":"sortBy=distanceScore&amp;isGeo=1&amp;hId=&amp;types=","queryParametersObj":{"sortBy":"distanceScore","isGeo":1,"hId":"","types":[]},"isCountry":false}</t>
-  </si>
-  <si>
     <t>postSearch2Adults1Child</t>
   </si>
   <si>
     <t>{"status":400,"title":"[Gateway:``] Bad Request","detail":{"dates.checkin":["The dates.checkin must be a date after replaceDate."]},"type":"https:\/\/www.w3.org\/Protocols\/rfc2616\/rfc2616-sec10.html"}</t>
+  </si>
+  <si>
+    <t>{"type":"hotel","query":"paris\/DateFrom\/DateTo\/2_adult,1_child,3_age\/2_adult","queryParameters":"sortBy=distanceScore&amp;isGeo=1&amp;hId=&amp;types=","queryParametersObj":{"sortBy":"distanceScore","isGeo":1,"hId":"","types":[]},"isCountry":false}</t>
+  </si>
+  <si>
+    <t>{"type":"hotel","query":"paris\/DateFrom\/DateTo\/2_adult\/2_adult","queryParameters":"sortBy=distanceScore&amp;isGeo=1&amp;hId=&amp;types=","queryParametersObj":{"sortBy":"distanceScore","isGeo":1,"hId":"","types":[]},"isCountry":false}</t>
+  </si>
+  <si>
+    <t>{"type":"hotel","query":"paris\/DateFrom\/DateTo\/1_adult\/1_adult","queryParameters":"sortBy=distanceScore&amp;isGeo=1&amp;hId=&amp;types=","queryParametersObj":{"sortBy":"distanceScore","isGeo":1,"hId":"","types":[]},"isCountry":false}</t>
+  </si>
+  <si>
+    <t>{"type":"hotel","query":"paris\/DateFrom\/DateTo\/0_adult,1_child,1_age","queryParameters":"sortBy=distanceScore&amp;isGeo=1&amp;hId=&amp;types=","queryParametersObj":{"sortBy":"distanceScore","isGeo":1,"hId":"","types":[]},"isCountry":false}</t>
+  </si>
+  <si>
+    <t>{"type":"hotel","query":"paris\/DateFrom\/DateTo\/0_adult","queryParameters":"sortBy=distanceScore&amp;isGeo=1&amp;hId=&amp;types=","queryParametersObj":{"sortBy":"distanceScore","isGeo":1,"hId":"","types":[]},"isCountry":false}</t>
   </si>
 </sst>
 </file>
@@ -2881,7 +2881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -2905,13 +2905,13 @@
     </row>
     <row r="2" spans="1:3" ht="195.75" customHeight="1">
       <c r="A2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="195.75" customHeight="1">
@@ -2922,51 +2922,51 @@
         <v>4</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="195.75" customHeight="1">
       <c r="A4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="195.75" customHeight="1">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="195.75" customHeight="1">
       <c r="A6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="195.75" customHeight="1">
       <c r="A7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="195.75" customHeight="1">
